--- a/Input/Daman/rateSheet.xlsx
+++ b/Input/Daman/rateSheet.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$217</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$181</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="30">
   <si>
     <t xml:space="preserve">planName</t>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">currency</t>
   </si>
   <si>
-    <t xml:space="preserve">Premier DNE SG</t>
+    <t xml:space="preserve">Premier DNE IND</t>
   </si>
   <si>
     <t xml:space="preserve">Within UAE: Exclusive 1 Outside UAE: WW</t>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t xml:space="preserve">female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Premier DNE IND</t>
   </si>
   <si>
     <t xml:space="preserve">Care Platinum DNE ISG</t>
@@ -248,44 +245,38 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L217"/>
+  <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K48" activeCellId="0" sqref="K48"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="8.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="8.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="12.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="34.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -326,7 +317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -346,7 +337,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>54814</v>
+        <v>47665</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>16</v>
@@ -378,7 +369,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>42977</v>
+        <v>37371</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>16</v>
@@ -410,7 +401,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>46557</v>
+        <v>40484</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>16</v>
@@ -442,7 +433,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>51407</v>
+        <v>44701</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>16</v>
@@ -474,7 +465,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>54983</v>
+        <v>47810</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>16</v>
@@ -506,7 +497,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>59715</v>
+        <v>51925</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>16</v>
@@ -538,7 +529,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>67014</v>
+        <v>58274</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>16</v>
@@ -570,7 +561,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>78827</v>
+        <v>68545</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>16</v>
@@ -602,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>96112</v>
+        <v>83576</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>16</v>
@@ -634,7 +625,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>119448</v>
+        <v>103869</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>16</v>
@@ -666,7 +657,7 @@
         <v>15</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>140258</v>
+        <v>121964</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>16</v>
@@ -698,7 +689,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>150756</v>
+        <v>131093</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>16</v>
@@ -733,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>52539</v>
+        <v>45687</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>16</v>
@@ -768,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>46977</v>
+        <v>40849</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>16</v>
@@ -803,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>52423</v>
+        <v>45584</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>16</v>
@@ -838,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>60450</v>
+        <v>52566</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>16</v>
@@ -873,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>69586</v>
+        <v>60510</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>16</v>
@@ -908,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>82051</v>
+        <v>71350</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>16</v>
@@ -943,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>95923</v>
+        <v>83411</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>16</v>
@@ -978,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>110876</v>
+        <v>96415</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>16</v>
@@ -1013,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>123733</v>
+        <v>107595</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>16</v>
@@ -1048,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>132065</v>
+        <v>114839</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>16</v>
@@ -1083,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>135688</v>
+        <v>117990</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>16</v>
@@ -1118,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>137235</v>
+        <v>119334</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>16</v>
@@ -1153,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>57785</v>
+        <v>50249</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>16</v>
@@ -1188,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>60706</v>
+        <v>52787</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>16</v>
@@ -1223,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>68167</v>
+        <v>59275</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>16</v>
@@ -1258,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>73697</v>
+        <v>64085</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>16</v>
@@ -1293,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>79081</v>
+        <v>68766</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>16</v>
@@ -1328,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>86756</v>
+        <v>75443</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>16</v>
@@ -1363,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>100628</v>
+        <v>87503</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>16</v>
@@ -1398,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>115581</v>
+        <v>100507</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>16</v>
@@ -1433,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>123733</v>
+        <v>107595</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>16</v>
@@ -1468,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>132065</v>
+        <v>114839</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>16</v>
@@ -1503,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>135688</v>
+        <v>117990</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>16</v>
@@ -1538,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>137235</v>
+        <v>119334</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>16</v>
@@ -1550,7 +1541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
         <v>20</v>
       </c>
@@ -1570,10 +1561,13 @@
         <v>15</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>47665</v>
+        <v>16496</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>17</v>
@@ -1602,10 +1596,13 @@
         <v>15</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>37371</v>
+        <v>11038</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>17</v>
@@ -1634,10 +1631,13 @@
         <v>15</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>40484</v>
+        <v>12744</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>17</v>
@@ -1666,10 +1666,13 @@
         <v>15</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>44701</v>
+        <v>15245</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>17</v>
@@ -1698,10 +1701,13 @@
         <v>15</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>47810</v>
+        <v>17178</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>17</v>
@@ -1730,10 +1736,13 @@
         <v>15</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>51925</v>
+        <v>19670</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>17</v>
@@ -1762,10 +1771,13 @@
         <v>15</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>58274</v>
+        <v>23210</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>17</v>
@@ -1794,10 +1806,13 @@
         <v>15</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>68545</v>
+        <v>28648</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>17</v>
@@ -1826,10 +1841,13 @@
         <v>15</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>83576</v>
+        <v>36484</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>17</v>
@@ -1858,10 +1876,13 @@
         <v>15</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>103869</v>
+        <v>47158</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>17</v>
@@ -1890,10 +1911,13 @@
         <v>15</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>121964</v>
+        <v>56808</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>17</v>
@@ -1922,10 +1946,13 @@
         <v>15</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>131093</v>
+        <v>61684</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>17</v>
@@ -1957,10 +1984,13 @@
         <v>1</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>45687</v>
+        <v>15564</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>17</v>
@@ -1992,10 +2022,13 @@
         <v>1</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>40849</v>
+        <v>12653</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>17</v>
@@ -2027,10 +2060,13 @@
         <v>1</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>45584</v>
+        <v>15176</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>17</v>
@@ -2062,10 +2098,13 @@
         <v>1</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>52566</v>
+        <v>18946</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>17</v>
@@ -2097,10 +2136,13 @@
         <v>1</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>60510</v>
+        <v>23231</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>17</v>
@@ -2132,10 +2174,13 @@
         <v>1</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>71350</v>
+        <v>28973</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>17</v>
@@ -2167,10 +2212,13 @@
         <v>1</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>83411</v>
+        <v>35310</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>17</v>
@@ -2202,10 +2250,13 @@
         <v>1</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>96415</v>
+        <v>42068</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>17</v>
@@ -2237,10 +2288,13 @@
         <v>1</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>107595</v>
+        <v>47838</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>17</v>
@@ -2272,10 +2326,13 @@
         <v>1</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>114839</v>
+        <v>51863</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>17</v>
@@ -2307,10 +2364,13 @@
         <v>1</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>117990</v>
+        <v>54028</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>17</v>
@@ -2342,10 +2402,13 @@
         <v>1</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>119334</v>
+        <v>54992</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>17</v>
@@ -2377,10 +2440,13 @@
         <v>0</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>50249</v>
+        <v>19769</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>17</v>
@@ -2412,10 +2478,13 @@
         <v>0</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>52787</v>
+        <v>23815</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>17</v>
@@ -2447,10 +2516,13 @@
         <v>0</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>59275</v>
+        <v>27992</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>17</v>
@@ -2482,10 +2554,13 @@
         <v>0</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>64085</v>
+        <v>29686</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>17</v>
@@ -2517,10 +2592,13 @@
         <v>0</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>68766</v>
+        <v>30875</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>17</v>
@@ -2552,10 +2630,13 @@
         <v>0</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>75443</v>
+        <v>32786</v>
+      </c>
+      <c r="I67" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>17</v>
@@ -2587,10 +2668,13 @@
         <v>0</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>87503</v>
+        <v>39123</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>17</v>
@@ -2622,10 +2706,13 @@
         <v>0</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>100507</v>
+        <v>45881</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>17</v>
@@ -2657,10 +2744,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>107595</v>
+        <v>47838</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>17</v>
@@ -2692,10 +2782,13 @@
         <v>0</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>114839</v>
+        <v>51863</v>
+      </c>
+      <c r="I71" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>17</v>
@@ -2727,10 +2820,13 @@
         <v>0</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>117990</v>
+        <v>54028</v>
+      </c>
+      <c r="I72" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>17</v>
@@ -2762,10 +2858,13 @@
         <v>0</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>119334</v>
+        <v>54992</v>
+      </c>
+      <c r="I73" s="2" t="n">
+        <v>753</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>17</v>
@@ -2774,15 +2873,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="20.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D74" s="5" t="n">
         <v>0</v>
@@ -2794,30 +2893,30 @@
         <v>15</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>16496</v>
+        <v>9535</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K74" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L74" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B75" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D75" s="5" t="n">
         <v>16</v>
@@ -2829,30 +2928,30 @@
         <v>15</v>
       </c>
       <c r="H75" s="3" t="n">
-        <v>11038</v>
+        <v>7715</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K75" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L75" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B76" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D76" s="5" t="n">
         <v>21</v>
@@ -2864,30 +2963,30 @@
         <v>15</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>12744</v>
+        <v>10256</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K76" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L76" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B77" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D77" s="5" t="n">
         <v>26</v>
@@ -2899,30 +2998,30 @@
         <v>15</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>15245</v>
+        <v>12331</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L77" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B78" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D78" s="5" t="n">
         <v>31</v>
@@ -2934,30 +3033,30 @@
         <v>15</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>17178</v>
+        <v>13575</v>
       </c>
       <c r="I78" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K78" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L78" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B79" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D79" s="5" t="n">
         <v>36</v>
@@ -2969,30 +3068,30 @@
         <v>15</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>19670</v>
+        <v>14756</v>
       </c>
       <c r="I79" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L79" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L79" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B80" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D80" s="5" t="n">
         <v>41</v>
@@ -3004,30 +3103,30 @@
         <v>15</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>23210</v>
+        <v>16782</v>
       </c>
       <c r="I80" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L80" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L80" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B81" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D81" s="5" t="n">
         <v>46</v>
@@ -3039,30 +3138,30 @@
         <v>15</v>
       </c>
       <c r="H81" s="3" t="n">
-        <v>28648</v>
+        <v>20883</v>
       </c>
       <c r="I81" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L81" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B82" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D82" s="5" t="n">
         <v>51</v>
@@ -3074,30 +3173,30 @@
         <v>15</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>36484</v>
+        <v>27671</v>
       </c>
       <c r="I82" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L82" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L82" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B83" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D83" s="5" t="n">
         <v>56</v>
@@ -3109,30 +3208,30 @@
         <v>15</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>47158</v>
+        <v>37808</v>
       </c>
       <c r="I83" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L83" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L83" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B84" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D84" s="5" t="n">
         <v>61</v>
@@ -3144,30 +3243,30 @@
         <v>15</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>56808</v>
+        <v>50281</v>
       </c>
       <c r="I84" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L84" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K84" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L84" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B85" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D85" s="5" t="n">
         <v>66</v>
@@ -3179,30 +3278,30 @@
         <v>15</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>61684</v>
+        <v>59620</v>
       </c>
       <c r="I85" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L85" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L85" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B86" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D86" s="5" t="n">
         <v>0</v>
@@ -3217,30 +3316,30 @@
         <v>1</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>15564</v>
+        <v>8526</v>
       </c>
       <c r="I86" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L86" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K86" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L86" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B87" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D87" s="5" t="n">
         <v>16</v>
@@ -3255,30 +3354,30 @@
         <v>1</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>12653</v>
+        <v>7656</v>
       </c>
       <c r="I87" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L87" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K87" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L87" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B88" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D88" s="5" t="n">
         <v>21</v>
@@ -3293,30 +3392,30 @@
         <v>1</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>15176</v>
+        <v>12377</v>
       </c>
       <c r="I88" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L88" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K88" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L88" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B89" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D89" s="5" t="n">
         <v>26</v>
@@ -3331,30 +3430,30 @@
         <v>1</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>18946</v>
+        <v>16694</v>
       </c>
       <c r="I89" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L89" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K89" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L89" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B90" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D90" s="5" t="n">
         <v>31</v>
@@ -3369,30 +3468,30 @@
         <v>1</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>23231</v>
+        <v>19380</v>
       </c>
       <c r="I90" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L90" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L90" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B91" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D91" s="5" t="n">
         <v>36</v>
@@ -3407,30 +3506,30 @@
         <v>1</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>28973</v>
+        <v>21371</v>
       </c>
       <c r="I91" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L91" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K91" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L91" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B92" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D92" s="5" t="n">
         <v>41</v>
@@ -3445,30 +3544,30 @@
         <v>1</v>
       </c>
       <c r="H92" s="3" t="n">
-        <v>35310</v>
+        <v>23717</v>
       </c>
       <c r="I92" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K92" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L92" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B93" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D93" s="5" t="n">
         <v>46</v>
@@ -3483,30 +3582,30 @@
         <v>1</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>42068</v>
+        <v>28168</v>
       </c>
       <c r="I93" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L93" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K93" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L93" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B94" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D94" s="5" t="n">
         <v>51</v>
@@ -3521,30 +3620,30 @@
         <v>1</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>47838</v>
+        <v>35776</v>
       </c>
       <c r="I94" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J94" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L94" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K94" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L94" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B95" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D95" s="5" t="n">
         <v>56</v>
@@ -3559,30 +3658,30 @@
         <v>1</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>51863</v>
+        <v>46148</v>
       </c>
       <c r="I95" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L95" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K95" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L95" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B96" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D96" s="5" t="n">
         <v>61</v>
@@ -3597,30 +3696,30 @@
         <v>1</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>54028</v>
+        <v>55958</v>
       </c>
       <c r="I96" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L96" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K96" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L96" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B97" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D97" s="5" t="n">
         <v>66</v>
@@ -3635,30 +3734,30 @@
         <v>1</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>54992</v>
+        <v>61408</v>
       </c>
       <c r="I97" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L97" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K97" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L97" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B98" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D98" s="5" t="n">
         <v>0</v>
@@ -3673,30 +3772,30 @@
         <v>0</v>
       </c>
       <c r="H98" s="3" t="n">
-        <v>19769</v>
+        <v>11387</v>
       </c>
       <c r="I98" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L98" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K98" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L98" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B99" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D99" s="5" t="n">
         <v>16</v>
@@ -3711,30 +3810,30 @@
         <v>0</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>23815</v>
+        <v>15254</v>
       </c>
       <c r="I99" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L99" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K99" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L99" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B100" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D100" s="5" t="n">
         <v>21</v>
@@ -3749,30 +3848,30 @@
         <v>0</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>27992</v>
+        <v>21101</v>
       </c>
       <c r="I100" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L100" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K100" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L100" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B101" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D101" s="5" t="n">
         <v>26</v>
@@ -3787,30 +3886,30 @@
         <v>0</v>
       </c>
       <c r="H101" s="3" t="n">
-        <v>29686</v>
+        <v>24003</v>
       </c>
       <c r="I101" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L101" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K101" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L101" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B102" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D102" s="5" t="n">
         <v>31</v>
@@ -3825,30 +3924,30 @@
         <v>0</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>30875</v>
+        <v>24582</v>
       </c>
       <c r="I102" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J102" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L102" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K102" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L102" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B103" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D103" s="5" t="n">
         <v>36</v>
@@ -3863,30 +3962,30 @@
         <v>0</v>
       </c>
       <c r="H103" s="3" t="n">
-        <v>32786</v>
+        <v>23965</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J103" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L103" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K103" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L103" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B104" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D104" s="5" t="n">
         <v>41</v>
@@ -3901,30 +4000,30 @@
         <v>0</v>
       </c>
       <c r="H104" s="3" t="n">
-        <v>39123</v>
+        <v>26310</v>
       </c>
       <c r="I104" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J104" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L104" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K104" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L104" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B105" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D105" s="5" t="n">
         <v>46</v>
@@ -3939,30 +4038,30 @@
         <v>0</v>
       </c>
       <c r="H105" s="3" t="n">
-        <v>45881</v>
+        <v>30761</v>
       </c>
       <c r="I105" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J105" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L105" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K105" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L105" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B106" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D106" s="5" t="n">
         <v>51</v>
@@ -3977,30 +4076,30 @@
         <v>0</v>
       </c>
       <c r="H106" s="3" t="n">
-        <v>47838</v>
+        <v>35776</v>
       </c>
       <c r="I106" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J106" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L106" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K106" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L106" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B107" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D107" s="5" t="n">
         <v>56</v>
@@ -4015,30 +4114,30 @@
         <v>0</v>
       </c>
       <c r="H107" s="3" t="n">
-        <v>51863</v>
+        <v>46148</v>
       </c>
       <c r="I107" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J107" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L107" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K107" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L107" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B108" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D108" s="5" t="n">
         <v>61</v>
@@ -4053,30 +4152,30 @@
         <v>0</v>
       </c>
       <c r="H108" s="3" t="n">
-        <v>54028</v>
+        <v>55958</v>
       </c>
       <c r="I108" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J108" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L108" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L108" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B109" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D109" s="5" t="n">
         <v>66</v>
@@ -4091,13 +4190,13 @@
         <v>0</v>
       </c>
       <c r="H109" s="3" t="n">
-        <v>54992</v>
+        <v>61408</v>
       </c>
       <c r="I109" s="2" t="n">
-        <v>753</v>
+        <v>629</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>17</v>
@@ -4106,50 +4205,50 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="20.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" s="3" t="n">
+        <v>6866</v>
+      </c>
+      <c r="I110" s="2" t="n">
+        <v>313</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L110" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D110" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H110" s="3" t="n">
-        <v>9535</v>
-      </c>
-      <c r="I110" s="2" t="n">
-        <v>629</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L110" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="B111" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D111" s="5" t="n">
         <v>16</v>
@@ -4161,13 +4260,13 @@
         <v>15</v>
       </c>
       <c r="H111" s="3" t="n">
-        <v>7715</v>
+        <v>5562</v>
       </c>
       <c r="I111" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>17</v>
@@ -4176,15 +4275,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D112" s="5" t="n">
         <v>21</v>
@@ -4196,13 +4295,13 @@
         <v>15</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>10256</v>
+        <v>7409</v>
       </c>
       <c r="I112" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>17</v>
@@ -4211,15 +4310,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D113" s="5" t="n">
         <v>26</v>
@@ -4231,13 +4330,13 @@
         <v>15</v>
       </c>
       <c r="H113" s="3" t="n">
-        <v>12331</v>
+        <v>8942</v>
       </c>
       <c r="I113" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>17</v>
@@ -4246,15 +4345,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D114" s="5" t="n">
         <v>31</v>
@@ -4266,13 +4365,13 @@
         <v>15</v>
       </c>
       <c r="H114" s="3" t="n">
-        <v>13575</v>
+        <v>9892</v>
       </c>
       <c r="I114" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>17</v>
@@ -4281,15 +4380,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D115" s="5" t="n">
         <v>36</v>
@@ -4301,13 +4400,13 @@
         <v>15</v>
       </c>
       <c r="H115" s="3" t="n">
-        <v>14756</v>
+        <v>10802</v>
       </c>
       <c r="I115" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>17</v>
@@ -4316,15 +4415,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D116" s="5" t="n">
         <v>41</v>
@@ -4336,13 +4435,13 @@
         <v>15</v>
       </c>
       <c r="H116" s="3" t="n">
-        <v>16782</v>
+        <v>12306</v>
       </c>
       <c r="I116" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>17</v>
@@ -4351,15 +4450,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D117" s="5" t="n">
         <v>46</v>
@@ -4371,13 +4470,13 @@
         <v>15</v>
       </c>
       <c r="H117" s="3" t="n">
-        <v>20883</v>
+        <v>15260</v>
       </c>
       <c r="I117" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>17</v>
@@ -4386,15 +4485,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D118" s="5" t="n">
         <v>51</v>
@@ -4406,13 +4505,13 @@
         <v>15</v>
       </c>
       <c r="H118" s="3" t="n">
-        <v>27671</v>
+        <v>20067</v>
       </c>
       <c r="I118" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>17</v>
@@ -4421,15 +4520,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D119" s="5" t="n">
         <v>56</v>
@@ -4441,13 +4540,13 @@
         <v>15</v>
       </c>
       <c r="H119" s="3" t="n">
-        <v>37808</v>
+        <v>27156</v>
       </c>
       <c r="I119" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>17</v>
@@ -4456,15 +4555,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D120" s="5" t="n">
         <v>61</v>
@@ -4476,13 +4575,13 @@
         <v>15</v>
       </c>
       <c r="H120" s="3" t="n">
-        <v>50281</v>
+        <v>35734</v>
       </c>
       <c r="I120" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>17</v>
@@ -4491,15 +4590,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D121" s="5" t="n">
         <v>66</v>
@@ -4511,13 +4610,13 @@
         <v>15</v>
       </c>
       <c r="H121" s="3" t="n">
-        <v>59620</v>
+        <v>42016</v>
       </c>
       <c r="I121" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>17</v>
@@ -4526,15 +4625,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D122" s="5" t="n">
         <v>0</v>
@@ -4549,13 +4648,13 @@
         <v>1</v>
       </c>
       <c r="H122" s="3" t="n">
-        <v>8526</v>
+        <v>6213</v>
       </c>
       <c r="I122" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>17</v>
@@ -4564,15 +4663,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D123" s="5" t="n">
         <v>16</v>
@@ -4587,13 +4686,13 @@
         <v>1</v>
       </c>
       <c r="H123" s="3" t="n">
-        <v>7656</v>
+        <v>5582</v>
       </c>
       <c r="I123" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>17</v>
@@ -4602,15 +4701,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D124" s="5" t="n">
         <v>21</v>
@@ -4625,13 +4724,13 @@
         <v>1</v>
       </c>
       <c r="H124" s="3" t="n">
-        <v>12377</v>
+        <v>9039</v>
       </c>
       <c r="I124" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>17</v>
@@ -4640,15 +4739,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D125" s="5" t="n">
         <v>26</v>
@@ -4663,13 +4762,13 @@
         <v>1</v>
       </c>
       <c r="H125" s="3" t="n">
-        <v>16694</v>
+        <v>12247</v>
       </c>
       <c r="I125" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>17</v>
@@ -4678,15 +4777,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D126" s="5" t="n">
         <v>31</v>
@@ -4701,13 +4800,13 @@
         <v>1</v>
       </c>
       <c r="H126" s="3" t="n">
-        <v>19380</v>
+        <v>14246</v>
       </c>
       <c r="I126" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>17</v>
@@ -4716,15 +4815,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D127" s="5" t="n">
         <v>36</v>
@@ -4739,13 +4838,13 @@
         <v>1</v>
       </c>
       <c r="H127" s="3" t="n">
-        <v>21371</v>
+        <v>15678</v>
       </c>
       <c r="I127" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>17</v>
@@ -4754,15 +4853,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D128" s="5" t="n">
         <v>41</v>
@@ -4777,13 +4876,13 @@
         <v>1</v>
       </c>
       <c r="H128" s="3" t="n">
-        <v>23717</v>
+        <v>17291</v>
       </c>
       <c r="I128" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>17</v>
@@ -4792,15 +4891,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D129" s="5" t="n">
         <v>46</v>
@@ -4815,13 +4914,13 @@
         <v>1</v>
       </c>
       <c r="H129" s="3" t="n">
-        <v>28168</v>
+        <v>20373</v>
       </c>
       <c r="I129" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>17</v>
@@ -4830,15 +4929,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D130" s="5" t="n">
         <v>51</v>
@@ -4853,13 +4952,13 @@
         <v>1</v>
       </c>
       <c r="H130" s="3" t="n">
-        <v>35776</v>
+        <v>25736</v>
       </c>
       <c r="I130" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>17</v>
@@ -4868,15 +4967,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D131" s="5" t="n">
         <v>56</v>
@@ -4891,13 +4990,13 @@
         <v>1</v>
       </c>
       <c r="H131" s="3" t="n">
-        <v>46148</v>
+        <v>33125</v>
       </c>
       <c r="I131" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>17</v>
@@ -4906,15 +5005,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D132" s="5" t="n">
         <v>61</v>
@@ -4929,13 +5028,13 @@
         <v>1</v>
       </c>
       <c r="H132" s="3" t="n">
-        <v>55958</v>
+        <v>40106</v>
       </c>
       <c r="I132" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>17</v>
@@ -4944,15 +5043,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D133" s="5" t="n">
         <v>66</v>
@@ -4967,13 +5066,13 @@
         <v>1</v>
       </c>
       <c r="H133" s="3" t="n">
-        <v>61408</v>
+        <v>43950</v>
       </c>
       <c r="I133" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>17</v>
@@ -4982,53 +5081,53 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C134" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" s="3" t="n">
+        <v>8590</v>
+      </c>
+      <c r="I134" s="2" t="n">
+        <v>313</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L134" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D134" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E134" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H134" s="3" t="n">
-        <v>11387</v>
-      </c>
-      <c r="I134" s="2" t="n">
-        <v>629</v>
-      </c>
-      <c r="J134" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K134" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L134" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="B135" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D135" s="5" t="n">
         <v>16</v>
@@ -5043,13 +5142,13 @@
         <v>0</v>
       </c>
       <c r="H135" s="3" t="n">
-        <v>15254</v>
+        <v>11889</v>
       </c>
       <c r="I135" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K135" s="2" t="s">
         <v>17</v>
@@ -5058,15 +5157,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D136" s="5" t="n">
         <v>21</v>
@@ -5081,13 +5180,13 @@
         <v>0</v>
       </c>
       <c r="H136" s="3" t="n">
-        <v>21101</v>
+        <v>16280</v>
       </c>
       <c r="I136" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>17</v>
@@ -5096,15 +5195,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D137" s="5" t="n">
         <v>26</v>
@@ -5119,13 +5218,13 @@
         <v>0</v>
       </c>
       <c r="H137" s="3" t="n">
-        <v>24003</v>
+        <v>18316</v>
       </c>
       <c r="I137" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K137" s="2" t="s">
         <v>17</v>
@@ -5134,15 +5233,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D138" s="5" t="n">
         <v>31</v>
@@ -5157,13 +5256,13 @@
         <v>0</v>
       </c>
       <c r="H138" s="3" t="n">
-        <v>24582</v>
+        <v>18565</v>
       </c>
       <c r="I138" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K138" s="2" t="s">
         <v>17</v>
@@ -5172,15 +5271,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D139" s="5" t="n">
         <v>36</v>
@@ -5195,13 +5294,13 @@
         <v>0</v>
       </c>
       <c r="H139" s="3" t="n">
-        <v>23965</v>
+        <v>17832</v>
       </c>
       <c r="I139" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>17</v>
@@ -5210,15 +5309,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D140" s="5" t="n">
         <v>41</v>
@@ -5233,13 +5332,13 @@
         <v>0</v>
       </c>
       <c r="H140" s="3" t="n">
-        <v>26310</v>
+        <v>19445</v>
       </c>
       <c r="I140" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K140" s="2" t="s">
         <v>17</v>
@@ -5248,15 +5347,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D141" s="5" t="n">
         <v>46</v>
@@ -5271,13 +5370,13 @@
         <v>0</v>
       </c>
       <c r="H141" s="3" t="n">
-        <v>30761</v>
+        <v>22526</v>
       </c>
       <c r="I141" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K141" s="2" t="s">
         <v>17</v>
@@ -5286,15 +5385,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D142" s="5" t="n">
         <v>51</v>
@@ -5309,13 +5408,13 @@
         <v>0</v>
       </c>
       <c r="H142" s="3" t="n">
-        <v>35776</v>
+        <v>25736</v>
       </c>
       <c r="I142" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>17</v>
@@ -5324,15 +5423,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D143" s="5" t="n">
         <v>56</v>
@@ -5347,13 +5446,13 @@
         <v>0</v>
       </c>
       <c r="H143" s="3" t="n">
-        <v>46148</v>
+        <v>33125</v>
       </c>
       <c r="I143" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K143" s="2" t="s">
         <v>17</v>
@@ -5362,15 +5461,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D144" s="5" t="n">
         <v>61</v>
@@ -5385,13 +5484,13 @@
         <v>0</v>
       </c>
       <c r="H144" s="3" t="n">
-        <v>55958</v>
+        <v>40106</v>
       </c>
       <c r="I144" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>17</v>
@@ -5400,15 +5499,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D145" s="5" t="n">
         <v>66</v>
@@ -5423,13 +5522,13 @@
         <v>0</v>
       </c>
       <c r="H145" s="3" t="n">
-        <v>61408</v>
+        <v>43950</v>
       </c>
       <c r="I145" s="2" t="n">
-        <v>629</v>
+        <v>313</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K145" s="2" t="s">
         <v>17</v>
@@ -5440,13 +5539,13 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D146" s="5" t="n">
         <v>0</v>
@@ -5458,13 +5557,13 @@
         <v>15</v>
       </c>
       <c r="H146" s="3" t="n">
-        <v>6866</v>
+        <v>5112</v>
       </c>
       <c r="I146" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K146" s="2" t="s">
         <v>17</v>
@@ -5475,13 +5574,13 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D147" s="5" t="n">
         <v>16</v>
@@ -5493,13 +5592,13 @@
         <v>15</v>
       </c>
       <c r="H147" s="3" t="n">
-        <v>5562</v>
+        <v>3273</v>
       </c>
       <c r="I147" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>17</v>
@@ -5510,13 +5609,13 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D148" s="5" t="n">
         <v>21</v>
@@ -5528,13 +5627,13 @@
         <v>15</v>
       </c>
       <c r="H148" s="3" t="n">
-        <v>7409</v>
+        <v>4440</v>
       </c>
       <c r="I148" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K148" s="2" t="s">
         <v>17</v>
@@ -5545,13 +5644,13 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D149" s="5" t="n">
         <v>26</v>
@@ -5563,13 +5662,13 @@
         <v>15</v>
       </c>
       <c r="H149" s="3" t="n">
-        <v>8942</v>
+        <v>6076</v>
       </c>
       <c r="I149" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>17</v>
@@ -5580,13 +5679,13 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D150" s="5" t="n">
         <v>31</v>
@@ -5598,13 +5697,13 @@
         <v>15</v>
       </c>
       <c r="H150" s="3" t="n">
-        <v>9892</v>
+        <v>7203</v>
       </c>
       <c r="I150" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>17</v>
@@ -5615,13 +5714,13 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D151" s="5" t="n">
         <v>36</v>
@@ -5633,13 +5732,13 @@
         <v>15</v>
       </c>
       <c r="H151" s="3" t="n">
-        <v>10802</v>
+        <v>8201</v>
       </c>
       <c r="I151" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K151" s="2" t="s">
         <v>17</v>
@@ -5650,13 +5749,13 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D152" s="5" t="n">
         <v>41</v>
@@ -5668,13 +5767,13 @@
         <v>15</v>
       </c>
       <c r="H152" s="3" t="n">
-        <v>12306</v>
+        <v>9416</v>
       </c>
       <c r="I152" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>17</v>
@@ -5685,13 +5784,13 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D153" s="5" t="n">
         <v>46</v>
@@ -5703,13 +5802,13 @@
         <v>15</v>
       </c>
       <c r="H153" s="3" t="n">
-        <v>15260</v>
+        <v>11530</v>
       </c>
       <c r="I153" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>17</v>
@@ -5720,13 +5819,13 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D154" s="5" t="n">
         <v>51</v>
@@ -5738,13 +5837,13 @@
         <v>15</v>
       </c>
       <c r="H154" s="3" t="n">
-        <v>20067</v>
+        <v>15313</v>
       </c>
       <c r="I154" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K154" s="2" t="s">
         <v>17</v>
@@ -5755,13 +5854,13 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D155" s="5" t="n">
         <v>56</v>
@@ -5773,13 +5872,13 @@
         <v>15</v>
       </c>
       <c r="H155" s="3" t="n">
-        <v>27156</v>
+        <v>21772</v>
       </c>
       <c r="I155" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>17</v>
@@ -5790,13 +5889,13 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D156" s="5" t="n">
         <v>61</v>
@@ -5808,13 +5907,13 @@
         <v>15</v>
       </c>
       <c r="H156" s="3" t="n">
-        <v>35734</v>
+        <v>29848</v>
       </c>
       <c r="I156" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>17</v>
@@ -5825,13 +5924,13 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D157" s="5" t="n">
         <v>66</v>
@@ -5843,13 +5942,13 @@
         <v>15</v>
       </c>
       <c r="H157" s="3" t="n">
-        <v>42016</v>
+        <v>36535</v>
       </c>
       <c r="I157" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>17</v>
@@ -5860,13 +5959,13 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D158" s="5" t="n">
         <v>0</v>
@@ -5881,13 +5980,13 @@
         <v>1</v>
       </c>
       <c r="H158" s="3" t="n">
-        <v>6213</v>
+        <v>4834</v>
       </c>
       <c r="I158" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>17</v>
@@ -5898,13 +5997,13 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D159" s="5" t="n">
         <v>16</v>
@@ -5919,13 +6018,13 @@
         <v>1</v>
       </c>
       <c r="H159" s="3" t="n">
-        <v>5582</v>
+        <v>4221</v>
       </c>
       <c r="I159" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K159" s="2" t="s">
         <v>17</v>
@@ -5936,13 +6035,13 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D160" s="5" t="n">
         <v>21</v>
@@ -5957,13 +6056,13 @@
         <v>1</v>
       </c>
       <c r="H160" s="3" t="n">
-        <v>9039</v>
+        <v>6284</v>
       </c>
       <c r="I160" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K160" s="2" t="s">
         <v>17</v>
@@ -5974,13 +6073,13 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D161" s="5" t="n">
         <v>26</v>
@@ -5995,13 +6094,13 @@
         <v>1</v>
       </c>
       <c r="H161" s="3" t="n">
-        <v>12247</v>
+        <v>8579</v>
       </c>
       <c r="I161" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K161" s="2" t="s">
         <v>17</v>
@@ -6012,13 +6111,13 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D162" s="5" t="n">
         <v>31</v>
@@ -6033,13 +6132,13 @@
         <v>1</v>
       </c>
       <c r="H162" s="3" t="n">
-        <v>14246</v>
+        <v>10159</v>
       </c>
       <c r="I162" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>17</v>
@@ -6050,13 +6149,13 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D163" s="5" t="n">
         <v>36</v>
@@ -6071,13 +6170,13 @@
         <v>1</v>
       </c>
       <c r="H163" s="3" t="n">
-        <v>15678</v>
+        <v>11543</v>
       </c>
       <c r="I163" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K163" s="2" t="s">
         <v>17</v>
@@ -6088,13 +6187,13 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D164" s="5" t="n">
         <v>41</v>
@@ -6109,13 +6208,13 @@
         <v>1</v>
       </c>
       <c r="H164" s="3" t="n">
-        <v>17291</v>
+        <v>13221</v>
       </c>
       <c r="I164" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K164" s="2" t="s">
         <v>17</v>
@@ -6126,13 +6225,13 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D165" s="5" t="n">
         <v>46</v>
@@ -6147,13 +6246,13 @@
         <v>1</v>
       </c>
       <c r="H165" s="3" t="n">
-        <v>20373</v>
+        <v>15911</v>
       </c>
       <c r="I165" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K165" s="2" t="s">
         <v>17</v>
@@ -6164,13 +6263,13 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D166" s="5" t="n">
         <v>51</v>
@@ -6185,13 +6284,13 @@
         <v>1</v>
       </c>
       <c r="H166" s="3" t="n">
-        <v>25736</v>
+        <v>20293</v>
       </c>
       <c r="I166" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K166" s="2" t="s">
         <v>17</v>
@@ -6202,13 +6301,13 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D167" s="5" t="n">
         <v>56</v>
@@ -6223,13 +6322,13 @@
         <v>1</v>
       </c>
       <c r="H167" s="3" t="n">
-        <v>33125</v>
+        <v>26851</v>
       </c>
       <c r="I167" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K167" s="2" t="s">
         <v>17</v>
@@ -6240,13 +6339,13 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D168" s="5" t="n">
         <v>61</v>
@@ -6261,13 +6360,13 @@
         <v>1</v>
       </c>
       <c r="H168" s="3" t="n">
-        <v>40106</v>
+        <v>35184</v>
       </c>
       <c r="I168" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K168" s="2" t="s">
         <v>17</v>
@@ -6278,13 +6377,13 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D169" s="5" t="n">
         <v>66</v>
@@ -6299,13 +6398,13 @@
         <v>1</v>
       </c>
       <c r="H169" s="3" t="n">
-        <v>43950</v>
+        <v>42081</v>
       </c>
       <c r="I169" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>17</v>
@@ -6316,13 +6415,13 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D170" s="5" t="n">
         <v>0</v>
@@ -6337,13 +6436,13 @@
         <v>0</v>
       </c>
       <c r="H170" s="3" t="n">
-        <v>8590</v>
+        <v>6593</v>
       </c>
       <c r="I170" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>17</v>
@@ -6354,13 +6453,13 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D171" s="5" t="n">
         <v>16</v>
@@ -6375,13 +6474,13 @@
         <v>0</v>
       </c>
       <c r="H171" s="3" t="n">
-        <v>11889</v>
+        <v>8873</v>
       </c>
       <c r="I171" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K171" s="2" t="s">
         <v>17</v>
@@ -6392,13 +6491,13 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D172" s="5" t="n">
         <v>21</v>
@@ -6413,13 +6512,13 @@
         <v>0</v>
       </c>
       <c r="H172" s="3" t="n">
-        <v>16280</v>
+        <v>11622</v>
       </c>
       <c r="I172" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K172" s="2" t="s">
         <v>17</v>
@@ -6430,13 +6529,13 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D173" s="5" t="n">
         <v>26</v>
@@ -6451,13 +6550,13 @@
         <v>0</v>
       </c>
       <c r="H173" s="3" t="n">
-        <v>18316</v>
+        <v>13057</v>
       </c>
       <c r="I173" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K173" s="2" t="s">
         <v>17</v>
@@ -6468,13 +6567,13 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D174" s="5" t="n">
         <v>31</v>
@@ -6489,13 +6588,13 @@
         <v>0</v>
       </c>
       <c r="H174" s="3" t="n">
-        <v>18565</v>
+        <v>13352</v>
       </c>
       <c r="I174" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K174" s="2" t="s">
         <v>17</v>
@@ -6506,13 +6605,13 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D175" s="5" t="n">
         <v>36</v>
@@ -6527,13 +6626,13 @@
         <v>0</v>
       </c>
       <c r="H175" s="3" t="n">
-        <v>17832</v>
+        <v>13133</v>
       </c>
       <c r="I175" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K175" s="2" t="s">
         <v>17</v>
@@ -6544,13 +6643,13 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D176" s="5" t="n">
         <v>41</v>
@@ -6565,13 +6664,13 @@
         <v>0</v>
       </c>
       <c r="H176" s="3" t="n">
-        <v>19445</v>
+        <v>14810</v>
       </c>
       <c r="I176" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K176" s="2" t="s">
         <v>17</v>
@@ -6582,13 +6681,13 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D177" s="5" t="n">
         <v>46</v>
@@ -6603,13 +6702,13 @@
         <v>0</v>
       </c>
       <c r="H177" s="3" t="n">
-        <v>22526</v>
+        <v>17501</v>
       </c>
       <c r="I177" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K177" s="2" t="s">
         <v>17</v>
@@ -6620,13 +6719,13 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D178" s="5" t="n">
         <v>51</v>
@@ -6641,13 +6740,13 @@
         <v>0</v>
       </c>
       <c r="H178" s="3" t="n">
-        <v>25736</v>
+        <v>20293</v>
       </c>
       <c r="I178" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K178" s="2" t="s">
         <v>17</v>
@@ -6658,13 +6757,13 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D179" s="5" t="n">
         <v>56</v>
@@ -6679,13 +6778,13 @@
         <v>0</v>
       </c>
       <c r="H179" s="3" t="n">
-        <v>33125</v>
+        <v>26851</v>
       </c>
       <c r="I179" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K179" s="2" t="s">
         <v>17</v>
@@ -6696,13 +6795,13 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D180" s="5" t="n">
         <v>61</v>
@@ -6717,13 +6816,13 @@
         <v>0</v>
       </c>
       <c r="H180" s="3" t="n">
-        <v>40106</v>
+        <v>35184</v>
       </c>
       <c r="I180" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K180" s="2" t="s">
         <v>17</v>
@@ -6734,13 +6833,13 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D181" s="5" t="n">
         <v>66</v>
@@ -6755,13 +6854,13 @@
         <v>0</v>
       </c>
       <c r="H181" s="3" t="n">
-        <v>43950</v>
+        <v>42081</v>
       </c>
       <c r="I181" s="2" t="n">
         <v>313</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K181" s="2" t="s">
         <v>17</v>
@@ -6770,1340 +6869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D182" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E182" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H182" s="3" t="n">
-        <v>5112</v>
-      </c>
-      <c r="I182" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J182" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K182" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L182" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D183" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="E183" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H183" s="3" t="n">
-        <v>3273</v>
-      </c>
-      <c r="I183" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J183" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K183" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L183" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D184" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="E184" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H184" s="3" t="n">
-        <v>4440</v>
-      </c>
-      <c r="I184" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J184" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K184" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L184" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D185" s="5" t="n">
-        <v>26</v>
-      </c>
-      <c r="E185" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H185" s="3" t="n">
-        <v>6076</v>
-      </c>
-      <c r="I185" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J185" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K185" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L185" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D186" s="5" t="n">
-        <v>31</v>
-      </c>
-      <c r="E186" s="5" t="n">
-        <v>35</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H186" s="3" t="n">
-        <v>7203</v>
-      </c>
-      <c r="I186" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J186" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K186" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L186" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C187" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D187" s="5" t="n">
-        <v>36</v>
-      </c>
-      <c r="E187" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H187" s="3" t="n">
-        <v>8201</v>
-      </c>
-      <c r="I187" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J187" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K187" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L187" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C188" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D188" s="5" t="n">
-        <v>41</v>
-      </c>
-      <c r="E188" s="5" t="n">
-        <v>45</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H188" s="3" t="n">
-        <v>9416</v>
-      </c>
-      <c r="I188" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J188" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K188" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L188" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C189" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D189" s="5" t="n">
-        <v>46</v>
-      </c>
-      <c r="E189" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H189" s="3" t="n">
-        <v>11530</v>
-      </c>
-      <c r="I189" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J189" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K189" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L189" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C190" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D190" s="5" t="n">
-        <v>51</v>
-      </c>
-      <c r="E190" s="5" t="n">
-        <v>55</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H190" s="3" t="n">
-        <v>15313</v>
-      </c>
-      <c r="I190" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J190" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K190" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L190" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C191" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D191" s="5" t="n">
-        <v>56</v>
-      </c>
-      <c r="E191" s="5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H191" s="3" t="n">
-        <v>21772</v>
-      </c>
-      <c r="I191" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J191" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K191" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L191" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D192" s="5" t="n">
-        <v>61</v>
-      </c>
-      <c r="E192" s="5" t="n">
-        <v>65</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H192" s="3" t="n">
-        <v>29848</v>
-      </c>
-      <c r="I192" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J192" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K192" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L192" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D193" s="5" t="n">
-        <v>66</v>
-      </c>
-      <c r="E193" s="5" t="n">
-        <v>99</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H193" s="3" t="n">
-        <v>36535</v>
-      </c>
-      <c r="I193" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J193" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K193" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L193" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D194" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E194" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G194" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H194" s="3" t="n">
-        <v>4834</v>
-      </c>
-      <c r="I194" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J194" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K194" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L194" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D195" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="E195" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G195" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H195" s="3" t="n">
-        <v>4221</v>
-      </c>
-      <c r="I195" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J195" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K195" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L195" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D196" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="E196" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G196" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H196" s="3" t="n">
-        <v>6284</v>
-      </c>
-      <c r="I196" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J196" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K196" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L196" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D197" s="5" t="n">
-        <v>26</v>
-      </c>
-      <c r="E197" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G197" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H197" s="3" t="n">
-        <v>8579</v>
-      </c>
-      <c r="I197" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J197" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K197" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L197" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D198" s="5" t="n">
-        <v>31</v>
-      </c>
-      <c r="E198" s="5" t="n">
-        <v>35</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G198" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H198" s="3" t="n">
-        <v>10159</v>
-      </c>
-      <c r="I198" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J198" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K198" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L198" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D199" s="5" t="n">
-        <v>36</v>
-      </c>
-      <c r="E199" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G199" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H199" s="3" t="n">
-        <v>11543</v>
-      </c>
-      <c r="I199" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J199" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K199" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L199" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D200" s="5" t="n">
-        <v>41</v>
-      </c>
-      <c r="E200" s="5" t="n">
-        <v>45</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G200" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H200" s="3" t="n">
-        <v>13221</v>
-      </c>
-      <c r="I200" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J200" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K200" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L200" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C201" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D201" s="5" t="n">
-        <v>46</v>
-      </c>
-      <c r="E201" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G201" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H201" s="3" t="n">
-        <v>15911</v>
-      </c>
-      <c r="I201" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J201" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K201" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L201" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C202" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D202" s="5" t="n">
-        <v>51</v>
-      </c>
-      <c r="E202" s="5" t="n">
-        <v>55</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G202" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H202" s="3" t="n">
-        <v>20293</v>
-      </c>
-      <c r="I202" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J202" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K202" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L202" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C203" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D203" s="5" t="n">
-        <v>56</v>
-      </c>
-      <c r="E203" s="5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G203" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H203" s="3" t="n">
-        <v>26851</v>
-      </c>
-      <c r="I203" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J203" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K203" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L203" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D204" s="5" t="n">
-        <v>61</v>
-      </c>
-      <c r="E204" s="5" t="n">
-        <v>65</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G204" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H204" s="3" t="n">
-        <v>35184</v>
-      </c>
-      <c r="I204" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J204" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K204" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L204" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D205" s="5" t="n">
-        <v>66</v>
-      </c>
-      <c r="E205" s="5" t="n">
-        <v>99</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G205" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H205" s="3" t="n">
-        <v>42081</v>
-      </c>
-      <c r="I205" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J205" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K205" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L205" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B206" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C206" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D206" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E206" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G206" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H206" s="3" t="n">
-        <v>6593</v>
-      </c>
-      <c r="I206" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J206" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K206" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L206" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D207" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="E207" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G207" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H207" s="3" t="n">
-        <v>8873</v>
-      </c>
-      <c r="I207" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J207" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K207" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L207" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D208" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="E208" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G208" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H208" s="3" t="n">
-        <v>11622</v>
-      </c>
-      <c r="I208" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J208" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K208" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L208" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C209" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D209" s="5" t="n">
-        <v>26</v>
-      </c>
-      <c r="E209" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G209" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H209" s="3" t="n">
-        <v>13057</v>
-      </c>
-      <c r="I209" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J209" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K209" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L209" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C210" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D210" s="5" t="n">
-        <v>31</v>
-      </c>
-      <c r="E210" s="5" t="n">
-        <v>35</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G210" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H210" s="3" t="n">
-        <v>13352</v>
-      </c>
-      <c r="I210" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J210" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K210" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L210" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C211" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D211" s="5" t="n">
-        <v>36</v>
-      </c>
-      <c r="E211" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G211" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H211" s="3" t="n">
-        <v>13133</v>
-      </c>
-      <c r="I211" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J211" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K211" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L211" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C212" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D212" s="5" t="n">
-        <v>41</v>
-      </c>
-      <c r="E212" s="5" t="n">
-        <v>45</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G212" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H212" s="3" t="n">
-        <v>14810</v>
-      </c>
-      <c r="I212" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J212" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K212" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L212" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B213" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C213" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D213" s="5" t="n">
-        <v>46</v>
-      </c>
-      <c r="E213" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G213" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H213" s="3" t="n">
-        <v>17501</v>
-      </c>
-      <c r="I213" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J213" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K213" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L213" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B214" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C214" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D214" s="5" t="n">
-        <v>51</v>
-      </c>
-      <c r="E214" s="5" t="n">
-        <v>55</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G214" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H214" s="3" t="n">
-        <v>20293</v>
-      </c>
-      <c r="I214" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J214" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K214" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L214" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B215" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C215" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D215" s="5" t="n">
-        <v>56</v>
-      </c>
-      <c r="E215" s="5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G215" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H215" s="3" t="n">
-        <v>26851</v>
-      </c>
-      <c r="I215" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J215" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K215" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L215" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B216" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C216" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D216" s="5" t="n">
-        <v>61</v>
-      </c>
-      <c r="E216" s="5" t="n">
-        <v>65</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G216" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H216" s="3" t="n">
-        <v>35184</v>
-      </c>
-      <c r="I216" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J216" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K216" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L216" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C217" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D217" s="5" t="n">
-        <v>66</v>
-      </c>
-      <c r="E217" s="5" t="n">
-        <v>99</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G217" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H217" s="3" t="n">
-        <v>42081</v>
-      </c>
-      <c r="I217" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="J217" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K217" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L217" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K217"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8111,6 +6877,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>